--- a/заказы/филиалы и опт/2024/05,24/21,05,24 Ост КИ филиалы/дв 21,05,24 бррсч ост ки от Зверева.xlsx
+++ b/заказы/филиалы и опт/2024/05,24/21,05,24 Ост КИ филиалы/дв 21,05,24 бррсч ост ки от Зверева.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\21,05,24 Ост КИ филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\Останкино\ostankino_data\заказы\филиалы и опт\2024\05,24\21,05,24 Ост КИ филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F899010-01AB-49B5-A998-167D4E00E79B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94688C9-656A-4503-A094-5AE6B9291A36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="155">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -503,6 +503,12 @@
   </si>
   <si>
     <t>25,05,</t>
+  </si>
+  <si>
+    <t>матрица</t>
+  </si>
+  <si>
+    <t>матрица / новинка</t>
   </si>
 </sst>
 </file>
@@ -978,11 +984,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY478"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="S13" sqref="S13"/>
+      <selection pane="bottomRight" activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,7 +998,7 @@
     <col min="3" max="6" width="6.7109375" customWidth="1"/>
     <col min="7" max="7" width="5.7109375" style="8" customWidth="1"/>
     <col min="8" max="8" width="5.7109375" customWidth="1"/>
-    <col min="9" max="9" width="1.140625" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" customWidth="1"/>
     <col min="10" max="11" width="6.85546875" customWidth="1"/>
     <col min="12" max="13" width="0.5703125" customWidth="1"/>
     <col min="14" max="14" width="0.85546875" customWidth="1"/>
@@ -1415,7 +1421,9 @@
       <c r="H6" s="1">
         <v>60</v>
       </c>
-      <c r="I6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="J6" s="1">
         <v>176</v>
       </c>
@@ -1523,7 +1531,9 @@
       <c r="H7" s="1">
         <v>120</v>
       </c>
-      <c r="I7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="J7" s="1">
         <v>18.3</v>
       </c>
@@ -1921,7 +1931,9 @@
       <c r="H11" s="1">
         <v>45</v>
       </c>
-      <c r="I11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="J11" s="1">
         <v>228.12799999999999</v>
       </c>
@@ -2027,7 +2039,9 @@
       <c r="H12" s="1">
         <v>60</v>
       </c>
-      <c r="I12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="J12" s="1">
         <v>322.5</v>
       </c>
@@ -2132,7 +2146,9 @@
       <c r="H13" s="1">
         <v>120</v>
       </c>
-      <c r="I13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="J13" s="1">
         <v>18.399999999999999</v>
       </c>
@@ -2432,7 +2448,9 @@
       <c r="H16" s="1">
         <v>60</v>
       </c>
-      <c r="I16" s="1"/>
+      <c r="I16" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="J16" s="1">
         <v>182.86500000000001</v>
       </c>
@@ -2535,7 +2553,9 @@
       <c r="H17" s="1">
         <v>120</v>
       </c>
-      <c r="I17" s="1"/>
+      <c r="I17" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="J17" s="1">
         <v>220</v>
       </c>
@@ -2640,7 +2660,9 @@
       <c r="H18" s="1">
         <v>60</v>
       </c>
-      <c r="I18" s="1"/>
+      <c r="I18" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="J18" s="1">
         <v>127</v>
       </c>
@@ -2846,7 +2868,9 @@
       <c r="H20" s="1">
         <v>45</v>
       </c>
-      <c r="I20" s="1"/>
+      <c r="I20" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="J20" s="1">
         <v>167.87100000000001</v>
       </c>
@@ -3052,7 +3076,9 @@
       <c r="H22" s="1">
         <v>120</v>
       </c>
-      <c r="I22" s="1"/>
+      <c r="I22" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="J22" s="1">
         <v>229</v>
       </c>
@@ -3251,7 +3277,9 @@
       <c r="H24" s="1">
         <v>45</v>
       </c>
-      <c r="I24" s="1"/>
+      <c r="I24" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="J24" s="1">
         <v>205.12899999999999</v>
       </c>
@@ -3357,7 +3385,9 @@
       <c r="H25" s="1">
         <v>120</v>
       </c>
-      <c r="I25" s="1"/>
+      <c r="I25" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="J25" s="1">
         <v>171</v>
       </c>
@@ -3457,7 +3487,9 @@
       <c r="H26" s="1">
         <v>120</v>
       </c>
-      <c r="I26" s="1"/>
+      <c r="I26" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="J26" s="1">
         <v>12.8</v>
       </c>
@@ -3854,7 +3886,9 @@
       <c r="H30" s="1">
         <v>60</v>
       </c>
-      <c r="I30" s="1"/>
+      <c r="I30" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="J30" s="1">
         <v>223.59399999999999</v>
       </c>
@@ -3960,7 +3994,9 @@
       <c r="H31" s="1">
         <v>120</v>
       </c>
-      <c r="I31" s="1"/>
+      <c r="I31" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="J31" s="1">
         <v>47</v>
       </c>
@@ -4162,7 +4198,9 @@
       <c r="H33" s="1">
         <v>60</v>
       </c>
-      <c r="I33" s="1"/>
+      <c r="I33" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="J33" s="1">
         <v>72</v>
       </c>
@@ -4266,7 +4304,9 @@
       <c r="H34" s="1">
         <v>60</v>
       </c>
-      <c r="I34" s="1"/>
+      <c r="I34" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="J34" s="1">
         <v>92.603999999999999</v>
       </c>
@@ -4477,7 +4517,9 @@
       <c r="H36" s="1">
         <v>45</v>
       </c>
-      <c r="I36" s="1"/>
+      <c r="I36" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="J36" s="1">
         <v>120.062</v>
       </c>
@@ -4583,7 +4625,9 @@
       <c r="H37" s="1">
         <v>45</v>
       </c>
-      <c r="I37" s="1"/>
+      <c r="I37" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="J37" s="1">
         <v>295.36700000000002</v>
       </c>
@@ -4689,7 +4733,9 @@
       <c r="H38" s="1">
         <v>45</v>
       </c>
-      <c r="I38" s="1"/>
+      <c r="I38" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="J38" s="1">
         <v>218</v>
       </c>
@@ -4792,7 +4838,9 @@
       <c r="H39" s="23">
         <v>60</v>
       </c>
-      <c r="I39" s="23"/>
+      <c r="I39" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="J39" s="23">
         <v>91.221999999999994</v>
       </c>
@@ -5186,7 +5234,9 @@
       <c r="H43" s="1">
         <v>45</v>
       </c>
-      <c r="I43" s="1"/>
+      <c r="I43" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="J43" s="1">
         <v>271</v>
       </c>
@@ -5291,7 +5341,9 @@
       <c r="H44" s="1">
         <v>45</v>
       </c>
-      <c r="I44" s="1"/>
+      <c r="I44" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="J44" s="1">
         <v>171</v>
       </c>
@@ -5396,7 +5448,9 @@
       <c r="H45" s="1">
         <v>45</v>
       </c>
-      <c r="I45" s="1"/>
+      <c r="I45" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="J45" s="1">
         <v>109.205</v>
       </c>
@@ -5600,7 +5654,9 @@
       <c r="H47" s="1">
         <v>60</v>
       </c>
-      <c r="I47" s="1"/>
+      <c r="I47" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="J47" s="1">
         <v>460</v>
       </c>
@@ -5708,7 +5764,9 @@
       <c r="H48" s="1">
         <v>60</v>
       </c>
-      <c r="I48" s="1"/>
+      <c r="I48" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="J48" s="1">
         <v>387</v>
       </c>
@@ -6006,7 +6064,9 @@
       <c r="H51" s="1">
         <v>60</v>
       </c>
-      <c r="I51" s="1"/>
+      <c r="I51" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="J51" s="1">
         <v>364</v>
       </c>
@@ -6114,7 +6174,9 @@
       <c r="H52" s="1">
         <v>60</v>
       </c>
-      <c r="I52" s="1"/>
+      <c r="I52" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="J52" s="1">
         <v>32</v>
       </c>
@@ -6221,7 +6283,9 @@
       <c r="H53" s="1">
         <v>45</v>
       </c>
-      <c r="I53" s="1"/>
+      <c r="I53" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="J53" s="1">
         <v>38</v>
       </c>
@@ -6324,7 +6388,9 @@
       <c r="H54" s="1">
         <v>45</v>
       </c>
-      <c r="I54" s="1"/>
+      <c r="I54" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="J54" s="1">
         <v>179.00200000000001</v>
       </c>
@@ -6429,7 +6495,9 @@
       <c r="H55" s="1">
         <v>60</v>
       </c>
-      <c r="I55" s="1"/>
+      <c r="I55" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="J55" s="1">
         <v>50</v>
       </c>
@@ -7029,7 +7097,9 @@
       <c r="H61" s="1">
         <v>45</v>
       </c>
-      <c r="I61" s="1"/>
+      <c r="I61" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="J61" s="1">
         <v>342</v>
       </c>
@@ -7232,7 +7302,9 @@
       <c r="H63" s="1">
         <v>45</v>
       </c>
-      <c r="I63" s="1"/>
+      <c r="I63" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="J63" s="1">
         <v>509</v>
       </c>
@@ -7337,7 +7409,9 @@
       <c r="H64" s="1">
         <v>45</v>
       </c>
-      <c r="I64" s="1"/>
+      <c r="I64" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="J64" s="1">
         <v>478</v>
       </c>
@@ -7442,7 +7516,9 @@
       <c r="H65" s="1">
         <v>45</v>
       </c>
-      <c r="I65" s="1"/>
+      <c r="I65" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="J65" s="1">
         <v>477</v>
       </c>
@@ -7545,7 +7621,9 @@
       <c r="H66" s="1">
         <v>45</v>
       </c>
-      <c r="I66" s="1"/>
+      <c r="I66" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="J66" s="1">
         <v>252</v>
       </c>
@@ -7651,7 +7729,9 @@
       <c r="H67" s="1">
         <v>45</v>
       </c>
-      <c r="I67" s="1"/>
+      <c r="I67" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="J67" s="1">
         <v>411</v>
       </c>
@@ -7756,7 +7836,9 @@
       <c r="H68" s="1">
         <v>45</v>
       </c>
-      <c r="I68" s="1"/>
+      <c r="I68" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="J68" s="1">
         <v>702</v>
       </c>
@@ -7863,7 +7945,9 @@
       <c r="H69" s="1">
         <v>45</v>
       </c>
-      <c r="I69" s="1"/>
+      <c r="I69" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="J69" s="1">
         <v>97</v>
       </c>
@@ -7969,7 +8053,9 @@
       <c r="H70" s="1">
         <v>45</v>
       </c>
-      <c r="I70" s="1"/>
+      <c r="I70" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="J70" s="1">
         <v>485</v>
       </c>
@@ -8074,7 +8160,9 @@
       <c r="H71" s="1">
         <v>45</v>
       </c>
-      <c r="I71" s="1"/>
+      <c r="I71" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="J71" s="1">
         <v>303</v>
       </c>
@@ -8177,7 +8265,9 @@
       <c r="H72" s="23">
         <v>45</v>
       </c>
-      <c r="I72" s="23"/>
+      <c r="I72" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="J72" s="23">
         <v>12</v>
       </c>
@@ -8383,7 +8473,9 @@
       <c r="H74" s="1">
         <v>60</v>
       </c>
-      <c r="I74" s="1"/>
+      <c r="I74" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="J74" s="1">
         <v>125.99</v>
       </c>
@@ -8488,7 +8580,9 @@
       <c r="H75" s="1" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I75" s="1"/>
+      <c r="I75" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="J75" s="1">
         <v>54.9</v>
       </c>
@@ -8591,7 +8685,9 @@
       <c r="H76" s="1">
         <v>45</v>
       </c>
-      <c r="I76" s="1"/>
+      <c r="I76" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="J76" s="1">
         <v>150</v>
       </c>
@@ -8698,7 +8794,9 @@
       <c r="H77" s="1">
         <v>45</v>
       </c>
-      <c r="I77" s="1"/>
+      <c r="I77" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="J77" s="1">
         <v>151</v>
       </c>
@@ -8805,7 +8903,9 @@
       <c r="H78" s="1">
         <v>45</v>
       </c>
-      <c r="I78" s="1"/>
+      <c r="I78" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="J78" s="1">
         <v>194</v>
       </c>
@@ -8907,7 +9007,9 @@
       <c r="H79" s="1">
         <v>30</v>
       </c>
-      <c r="I79" s="1"/>
+      <c r="I79" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="J79" s="1">
         <v>17</v>
       </c>
@@ -9007,7 +9109,9 @@
       <c r="H80" s="1">
         <v>45</v>
       </c>
-      <c r="I80" s="1"/>
+      <c r="I80" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="J80" s="1"/>
       <c r="K80" s="1">
         <f t="shared" ref="K80" si="56">E80-J80</f>
@@ -9105,7 +9209,9 @@
       <c r="H81" s="1">
         <v>45</v>
       </c>
-      <c r="I81" s="1"/>
+      <c r="I81" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="J81" s="1"/>
       <c r="K81" s="1">
         <f t="shared" ref="K81" si="58">E81-J81</f>
@@ -9199,7 +9305,9 @@
       <c r="H82" s="1">
         <v>45</v>
       </c>
-      <c r="I82" s="1"/>
+      <c r="I82" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="J82" s="1"/>
       <c r="K82" s="1">
         <f t="shared" si="42"/>
@@ -9299,7 +9407,9 @@
       <c r="H83" s="1">
         <v>45</v>
       </c>
-      <c r="I83" s="1"/>
+      <c r="I83" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="J83" s="1"/>
       <c r="K83" s="1">
         <f t="shared" ref="K83" si="60">E83-J83</f>
@@ -9397,7 +9507,9 @@
       <c r="H84" s="1">
         <v>45</v>
       </c>
-      <c r="I84" s="1"/>
+      <c r="I84" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="J84" s="1"/>
       <c r="K84" s="1">
         <f t="shared" ref="K84:K85" si="62">E84-J84</f>
@@ -9495,7 +9607,9 @@
       <c r="H85" s="1">
         <v>45</v>
       </c>
-      <c r="I85" s="1"/>
+      <c r="I85" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="J85" s="1"/>
       <c r="K85" s="1">
         <f t="shared" si="62"/>
@@ -9593,7 +9707,9 @@
       <c r="H86" s="1">
         <v>45</v>
       </c>
-      <c r="I86" s="1"/>
+      <c r="I86" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="J86" s="1"/>
       <c r="K86" s="1">
         <f t="shared" ref="K86" si="64">E86-J86</f>
@@ -9695,7 +9811,9 @@
       <c r="H87" s="1">
         <v>60</v>
       </c>
-      <c r="I87" s="1"/>
+      <c r="I87" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="J87" s="1">
         <v>5</v>
       </c>
@@ -9795,7 +9913,9 @@
       <c r="H88" s="1">
         <v>45</v>
       </c>
-      <c r="I88" s="1"/>
+      <c r="I88" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="J88" s="1"/>
       <c r="K88" s="1">
         <f t="shared" ref="K88" si="67">E88-J88</f>
@@ -9893,7 +10013,9 @@
       <c r="H89" s="1">
         <v>45</v>
       </c>
-      <c r="I89" s="1"/>
+      <c r="I89" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="J89" s="1"/>
       <c r="K89" s="1">
         <f t="shared" ref="K89" si="69">E89-J89</f>
@@ -9987,7 +10109,9 @@
       <c r="H90" s="1">
         <v>45</v>
       </c>
-      <c r="I90" s="1"/>
+      <c r="I90" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="J90" s="1"/>
       <c r="K90" s="1">
         <f t="shared" si="66"/>
@@ -10087,7 +10211,9 @@
       <c r="H91" s="1">
         <v>45</v>
       </c>
-      <c r="I91" s="1"/>
+      <c r="I91" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="J91" s="1"/>
       <c r="K91" s="1">
         <f t="shared" ref="K91" si="71">E91-J91</f>
@@ -10189,7 +10315,9 @@
       <c r="H92" s="1" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I92" s="1"/>
+      <c r="I92" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="J92" s="1">
         <v>125</v>
       </c>
@@ -10297,7 +10425,9 @@
       <c r="H93" s="1">
         <v>60</v>
       </c>
-      <c r="I93" s="1"/>
+      <c r="I93" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="J93" s="1">
         <v>147</v>
       </c>
@@ -10403,7 +10533,9 @@
       <c r="H94" s="1">
         <v>60</v>
       </c>
-      <c r="I94" s="1"/>
+      <c r="I94" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="J94" s="1">
         <v>130</v>
       </c>
@@ -10506,7 +10638,9 @@
       <c r="H95" s="1">
         <v>60</v>
       </c>
-      <c r="I95" s="1"/>
+      <c r="I95" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="J95" s="1">
         <v>212</v>
       </c>
@@ -11086,7 +11220,9 @@
       <c r="H101" s="20" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I101" s="20"/>
+      <c r="I101" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="J101" s="20"/>
       <c r="K101" s="20"/>
       <c r="L101" s="20"/>
@@ -11156,7 +11292,9 @@
       <c r="H102" s="20" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I102" s="20"/>
+      <c r="I102" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="J102" s="20"/>
       <c r="K102" s="20"/>
       <c r="L102" s="20"/>
@@ -11222,7 +11360,9 @@
       <c r="F103" s="19"/>
       <c r="G103" s="22"/>
       <c r="H103" s="19"/>
-      <c r="I103" s="19"/>
+      <c r="I103" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="J103" s="19"/>
       <c r="K103" s="19"/>
       <c r="L103" s="19"/>
@@ -11283,7 +11423,9 @@
       <c r="F104" s="19"/>
       <c r="G104" s="22"/>
       <c r="H104" s="19"/>
-      <c r="I104" s="19"/>
+      <c r="I104" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="J104" s="19"/>
       <c r="K104" s="19"/>
       <c r="L104" s="19"/>
@@ -11344,7 +11486,9 @@
       <c r="F105" s="19"/>
       <c r="G105" s="22"/>
       <c r="H105" s="19"/>
-      <c r="I105" s="19"/>
+      <c r="I105" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="J105" s="19"/>
       <c r="K105" s="19"/>
       <c r="L105" s="19"/>
